--- a/doc/Speicher.xlsx
+++ b/doc/Speicher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenKNX_Module\OAM-LEDModule\OAM-LEDModule\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8A1073-11FE-4FEB-9E96-259BD18DC22A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63ACEEE-710E-44B5-A5E8-6F74EF8CA240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="14160" xr2:uid="{06C3CD4E-6B4D-4BE3-8FD1-2E9564BF4AD6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="14160" activeTab="1" xr2:uid="{06C3CD4E-6B4D-4BE3-8FD1-2E9564BF4AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,835 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Schoen</author>
+  </authors>
+  <commentList>
+    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{09CEB2A6-D837-4D15-9A90-192B3CC3AF60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1UseOnBrightness
+PT_EK1OnBrightness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V4" authorId="0" shapeId="0" xr:uid="{D9F98309-0B48-4637-871A-A418A29C29A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1RelativDimTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{61E14203-EB41-45C0-BAA9-A6411B352122}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnOffTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{4917E77C-DAE6-4B49-9E07-60CED18DB04A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1DimCurve</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{E2AF3CDF-8A7E-4702-AD5A-CEB74E340AE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzANum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{7D21D87F-016F-443F-94D2-5E486A2D491E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzBNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB4" authorId="0" shapeId="0" xr:uid="{B847F13A-7469-4BC0-BB3C-4F2EF227631D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzCNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC4" authorId="0" shapeId="0" xr:uid="{C4124356-AD10-42DB-8952-FBA3166CF643}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzDNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD4" authorId="0" shapeId="0" xr:uid="{7B993867-5449-4924-8232-7E01F03201AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzENum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0" shapeId="0" xr:uid="{55765217-999C-482B-8156-3C422EAEF46B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnBrightness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0" shapeId="0" xr:uid="{1DA57D62-B22A-4815-A803-67E2E2A54417}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1RelativDimTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{701A2A8E-49C3-4135-BE3A-92BA01A6391B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnOffTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0" shapeId="0" xr:uid="{E20052F4-D639-449A-88C6-3E50834A9B91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1DimCurve</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z6" authorId="0" shapeId="0" xr:uid="{02AD8E64-0D1A-4FE8-BB6F-672A38B4CCCA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzANum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA6" authorId="0" shapeId="0" xr:uid="{707A0A12-EC37-453A-A1B8-83EFC13FE78E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzBNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB6" authorId="0" shapeId="0" xr:uid="{EF14B0F8-D4F9-4FE6-809E-1B6732288854}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzCNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC6" authorId="0" shapeId="0" xr:uid="{40155E4E-55C2-45C5-956D-C582FD4433FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzDNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD6" authorId="0" shapeId="0" xr:uid="{FDE4C6B0-52E7-4A16-A4B5-CA71BAD584EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzENum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{C496D937-1530-4094-B077-5FB7EA0F7C2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnBrightness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V8" authorId="0" shapeId="0" xr:uid="{EDF9E17E-82CB-4116-8D8D-77DF0EBB943C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1RelativDimTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{9AEE0E3C-2533-407A-B428-87A6497AC02B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnOffTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X8" authorId="0" shapeId="0" xr:uid="{47D1A72F-DAB0-44DB-9777-5BCBB60CB258}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1DimCurve</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z8" authorId="0" shapeId="0" xr:uid="{08CC7529-7A86-41D0-A301-3BF6B863D7B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzANum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA8" authorId="0" shapeId="0" xr:uid="{5ACF6573-A78B-4531-B4BB-54D2485BEA8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzBNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB8" authorId="0" shapeId="0" xr:uid="{79918E1E-7D85-40DC-8AB7-E75446EB3C8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzCNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC8" authorId="0" shapeId="0" xr:uid="{050317C4-8C79-486D-BBBB-5FBB539B7956}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzDNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD8" authorId="0" shapeId="0" xr:uid="{A25D5D99-99F0-4689-B29E-F2191093E486}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzENum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U10" authorId="0" shapeId="0" xr:uid="{040C9FFE-8258-4BA6-A67A-546586D6CC01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnBrightness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V10" authorId="0" shapeId="0" xr:uid="{CB1A822E-0694-4703-B5BB-DDBA4AC5A099}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1RelativDimTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W10" authorId="0" shapeId="0" xr:uid="{FB5B5067-C1A8-4984-ACE6-A7C4D8760248}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnOffTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X10" authorId="0" shapeId="0" xr:uid="{152A3813-5ED1-4AEA-BB1F-A79DE48491B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1DimCurve</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z10" authorId="0" shapeId="0" xr:uid="{08E34487-BB47-4ABC-9771-A82260157613}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzANum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA10" authorId="0" shapeId="0" xr:uid="{37FB2351-2811-4EE0-9B9A-A119CD919056}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzBNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB10" authorId="0" shapeId="0" xr:uid="{0C73DF6F-69A2-4A99-B88E-CF22D17B3637}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzCNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC10" authorId="0" shapeId="0" xr:uid="{BC21E116-FFE5-4F50-8B24-35B042C55D48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzDNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD10" authorId="0" shapeId="0" xr:uid="{AE275BBA-E4F5-41A1-9519-8013C64FCB46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzENum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U12" authorId="0" shapeId="0" xr:uid="{01D33B88-9144-456B-B991-464C349F94AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnBrightness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V12" authorId="0" shapeId="0" xr:uid="{FBA3E82E-234D-4D16-AA3B-C029F09EDE4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1RelativDimTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W12" authorId="0" shapeId="0" xr:uid="{D036E376-3951-439A-902D-ACCBE3461EC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnOffTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X12" authorId="0" shapeId="0" xr:uid="{BDE5B937-7CDA-48FC-A034-AD370BF54483}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1DimCurve</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z12" authorId="0" shapeId="0" xr:uid="{E1E01C27-E5B5-4170-887E-F5BD8DD2C748}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzANum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA12" authorId="0" shapeId="0" xr:uid="{6E2F4967-4FC9-4C59-81C3-4C72D4B60112}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzBNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB12" authorId="0" shapeId="0" xr:uid="{43B91976-AF9E-49B5-8F0E-291587614FBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzCNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC12" authorId="0" shapeId="0" xr:uid="{58465DA2-33BB-4E40-A595-FCE7794A0073}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzDNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD12" authorId="0" shapeId="0" xr:uid="{A14A7356-DD91-4A6D-B822-5376718B9EF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzENum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U14" authorId="0" shapeId="0" xr:uid="{A995C55A-E3B5-424A-B52A-9C8B2146E4DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnBrightness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V14" authorId="0" shapeId="0" xr:uid="{8AC4D765-9A59-48B3-94AD-6097A16EA7F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1RelativDimTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W14" authorId="0" shapeId="0" xr:uid="{2AA5A08C-158E-49A9-8786-5741D2CBC0AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1OnOffTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X14" authorId="0" shapeId="0" xr:uid="{F9AFA11F-D4AE-454E-9C5B-8D3FC092262A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1DimCurve</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z14" authorId="0" shapeId="0" xr:uid="{D983ACE0-B65D-4552-8F19-D5CEC9E71FCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzANum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA14" authorId="0" shapeId="0" xr:uid="{9548EA3B-8C5A-4592-8297-5E7F9CD808CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzBNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB14" authorId="0" shapeId="0" xr:uid="{C3F9DD19-61DB-48DD-BB1E-BDE76DC06B5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzCNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC14" authorId="0" shapeId="0" xr:uid="{D490FDB9-3192-48AD-BA59-904798D4EE3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzDNum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD14" authorId="0" shapeId="0" xr:uid="{7C913CC3-D04C-46D5-B3E7-5044D356B741}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>PT_EK1SzENum</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
   <si>
     <t>0x0000</t>
   </si>
@@ -263,13 +1090,178 @@
   </si>
   <si>
     <t>0x02</t>
+  </si>
+  <si>
+    <t>EK: A</t>
+  </si>
+  <si>
+    <t>EK: B</t>
+  </si>
+  <si>
+    <t>EK: C</t>
+  </si>
+  <si>
+    <t>EK: D</t>
+  </si>
+  <si>
+    <t>EK: E</t>
+  </si>
+  <si>
+    <t>EK: F</t>
+  </si>
+  <si>
+    <t>EK: G</t>
+  </si>
+  <si>
+    <t>EK: H</t>
+  </si>
+  <si>
+    <t>EK: I</t>
+  </si>
+  <si>
+    <t>EK: J</t>
+  </si>
+  <si>
+    <t>EK: K</t>
+  </si>
+  <si>
+    <t>EK: L</t>
+  </si>
+  <si>
+    <t>TW: A</t>
+  </si>
+  <si>
+    <t>TW: B</t>
+  </si>
+  <si>
+    <t>TW: C</t>
+  </si>
+  <si>
+    <t>TW: E</t>
+  </si>
+  <si>
+    <t>TW: F</t>
+  </si>
+  <si>
+    <t>TW: D</t>
+  </si>
+  <si>
+    <t>RGB: A</t>
+  </si>
+  <si>
+    <t>RGB: C</t>
+  </si>
+  <si>
+    <t>RGB: D</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>DimAb</t>
+  </si>
+  <si>
+    <t>DimRel</t>
+  </si>
+  <si>
+    <t>StatusOnOff</t>
+  </si>
+  <si>
+    <t>StatusBrigh</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>DimAbBright</t>
+  </si>
+  <si>
+    <t>DimAbCoTe</t>
+  </si>
+  <si>
+    <t>DimRelBright</t>
+  </si>
+  <si>
+    <t>DimRelCoTe</t>
+  </si>
+  <si>
+    <t>StatusCoTe</t>
+  </si>
+  <si>
+    <t>ColorRGB</t>
+  </si>
+  <si>
+    <t>ColorHSV</t>
+  </si>
+  <si>
+    <t>DimAbH</t>
+  </si>
+  <si>
+    <t>DimAbS</t>
+  </si>
+  <si>
+    <t>DimAbV</t>
+  </si>
+  <si>
+    <t>DimRelH</t>
+  </si>
+  <si>
+    <t>DimRelS</t>
+  </si>
+  <si>
+    <t>DimRelV</t>
+  </si>
+  <si>
+    <t>StatusCoRGB</t>
+  </si>
+  <si>
+    <t>StatusCoHSV</t>
+  </si>
+  <si>
+    <t>StatusH</t>
+  </si>
+  <si>
+    <t>StatusV</t>
+  </si>
+  <si>
+    <t>StatusS</t>
+  </si>
+  <si>
+    <t>DimAbR</t>
+  </si>
+  <si>
+    <t>DimAbG</t>
+  </si>
+  <si>
+    <t>DimAbB</t>
+  </si>
+  <si>
+    <t>StatusR</t>
+  </si>
+  <si>
+    <t>StatusG</t>
+  </si>
+  <si>
+    <t>StatusB</t>
+  </si>
+  <si>
+    <t>DimRelR</t>
+  </si>
+  <si>
+    <t>DelRelG</t>
+  </si>
+  <si>
+    <t>DimRelB</t>
+  </si>
+  <si>
+    <t>RGB: B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +1274,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -328,7 +1340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -476,11 +1488,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,6 +1523,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,57 +1611,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="65"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="65"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="65"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="65"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="65"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="65"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="65"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -894,11 +1979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3EC3CA-629F-44F8-8BD0-D231238D4438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3EC3CA-629F-44F8-8BD0-D231238D4438}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,23 +2080,23 @@
       <c r="AD1" s="1">
         <v>9</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>8</v>
+      <c r="AE1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -1021,24 +2106,24 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1047,42 +2132,42 @@
       <c r="B3" s="4">
         <v>16</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
-      <c r="U3" s="29" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
+      <c r="U3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1091,70 +2176,82 @@
       <c r="B4" s="2">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
       <c r="T4" s="4">
         <v>0</v>
       </c>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
+      <c r="U4" s="5">
+        <f>$B$4+U1</f>
+        <v>32</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" ref="V4:X4" si="0">$B$4+V1</f>
+        <v>33</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="10"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
       <c r="T5" s="4">
         <v>16</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -1178,1034 +2275,1405 @@
         <f>SUM(B4+32)</f>
         <v>64</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <f>$B$6+U1</f>
+        <v>64</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" ref="V6:X6" si="1">$B$6+V1</f>
+        <v>65</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
+      <c r="T7" s="4">
+        <v>16</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" ref="B8:B46" si="0">SUM(B6+32)</f>
+        <f t="shared" ref="B8:B46" si="2">SUM(B6+32)</f>
         <v>96</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <f>$B$8+U1</f>
+        <v>96</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" ref="V8:X8" si="3">$B$8+V1</f>
+        <v>97</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
+      <c r="T9" s="4">
+        <v>16</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <f>$B$10+U1</f>
+        <v>128</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" ref="V10:X10" si="4">$B$10+V1</f>
+        <v>129</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27"/>
+      <c r="T11" s="4">
+        <v>16</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <f>$B$12+U1</f>
+        <v>160</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" ref="V12:X12" si="5">$B$12+V1</f>
+        <v>161</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
+      <c r="T13" s="4">
+        <v>16</v>
+      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="7"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="24"/>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <f>$B$14+U1</f>
+        <v>192</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" ref="V14:X14" si="6">$B$14+V1</f>
+        <v>193</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="10"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
+      <c r="T15" s="4">
+        <v>16</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="24"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>352</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="24"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>384</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="24"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>416</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
+      <c r="T28" s="60">
+        <v>0</v>
+      </c>
+      <c r="U28" s="62">
+        <f>$B$28+U1</f>
+        <v>416</v>
+      </c>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62">
+        <f t="shared" ref="V28:AD28" si="7">$B$28+W1</f>
+        <v>418</v>
+      </c>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="Z28" s="62">
+        <f t="shared" si="7"/>
+        <v>421</v>
+      </c>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62">
+        <f t="shared" si="7"/>
+        <v>423</v>
+      </c>
+      <c r="AC28" s="62">
+        <f t="shared" si="7"/>
+        <v>424</v>
+      </c>
+      <c r="AD28" s="62">
+        <f t="shared" si="7"/>
+        <v>425</v>
+      </c>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="60"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="16"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
+      <c r="T29" s="60">
+        <v>16</v>
+      </c>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="60"/>
+      <c r="AJ29" s="60"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="16"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="16"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="13"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="16"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="16"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="16"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="33"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>608</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="19"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="12"/>
+      <c r="T40" s="60">
+        <v>0</v>
+      </c>
+      <c r="U40" s="62">
+        <f>$B$40+U1</f>
+        <v>608</v>
+      </c>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62">
+        <f t="shared" ref="V40:AE40" si="8">$B$40+AB1</f>
+        <v>615</v>
+      </c>
+      <c r="AC40" s="62">
+        <f t="shared" si="8"/>
+        <v>616</v>
+      </c>
+      <c r="AD40" s="62">
+        <f t="shared" si="8"/>
+        <v>617</v>
+      </c>
+      <c r="AE40" s="62">
+        <f>$B$40+AE1</f>
+        <v>618</v>
+      </c>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="60"/>
+      <c r="AI40" s="60"/>
+      <c r="AJ40" s="60"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="22"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="15"/>
+      <c r="T41" s="60">
+        <v>16</v>
+      </c>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="60"/>
+      <c r="AG41" s="60"/>
+      <c r="AH41" s="60"/>
+      <c r="AI41" s="60"/>
+      <c r="AJ41" s="60"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>640</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="19"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="22"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="15"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>672</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="19"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="12"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="22"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="15"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="19"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="12"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="22"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="15"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C24:R25"/>
+    <mergeCell ref="C26:R27"/>
+    <mergeCell ref="C4:R5"/>
+    <mergeCell ref="C6:R7"/>
+    <mergeCell ref="C14:R15"/>
+    <mergeCell ref="C16:R17"/>
+    <mergeCell ref="C18:R19"/>
+    <mergeCell ref="C20:R21"/>
+    <mergeCell ref="C22:R23"/>
     <mergeCell ref="U3:AJ3"/>
     <mergeCell ref="C44:R45"/>
     <mergeCell ref="C46:R47"/>
@@ -2222,28 +3690,1875 @@
     <mergeCell ref="C32:R33"/>
     <mergeCell ref="C34:R35"/>
     <mergeCell ref="C36:R37"/>
-    <mergeCell ref="C14:R15"/>
-    <mergeCell ref="C16:R17"/>
-    <mergeCell ref="C18:R19"/>
-    <mergeCell ref="C20:R21"/>
-    <mergeCell ref="C22:R23"/>
-    <mergeCell ref="C24:R25"/>
-    <mergeCell ref="C26:R27"/>
-    <mergeCell ref="C4:R5"/>
-    <mergeCell ref="C6:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF66279-D331-4631-A34B-7F6BA7BF0073}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="34" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="E1" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="U1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E2" s="38">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39">
+        <v>2</v>
+      </c>
+      <c r="G2" s="39">
+        <v>3</v>
+      </c>
+      <c r="H2" s="39">
+        <v>4</v>
+      </c>
+      <c r="I2" s="39">
+        <v>5</v>
+      </c>
+      <c r="J2" s="39">
+        <v>6</v>
+      </c>
+      <c r="K2" s="39">
+        <v>7</v>
+      </c>
+      <c r="L2" s="39">
+        <v>8</v>
+      </c>
+      <c r="M2" s="39">
+        <v>9</v>
+      </c>
+      <c r="N2" s="39">
+        <v>10</v>
+      </c>
+      <c r="O2" s="39">
+        <v>11</v>
+      </c>
+      <c r="P2" s="39">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="39">
+        <v>13</v>
+      </c>
+      <c r="R2" s="39">
+        <v>14</v>
+      </c>
+      <c r="S2" s="39">
+        <v>15</v>
+      </c>
+      <c r="T2" s="39">
+        <v>16</v>
+      </c>
+      <c r="U2" s="39">
+        <v>17</v>
+      </c>
+      <c r="V2" s="39">
+        <v>18</v>
+      </c>
+      <c r="W2" s="39">
+        <v>19</v>
+      </c>
+      <c r="X2" s="39">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="39">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="39">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="39">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="39">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="39">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="39">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="39">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="39">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="39">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="53">
+        <v>100</v>
+      </c>
+      <c r="E3" s="40">
+        <f>D3+$E$2</f>
+        <v>101</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42">
+        <f>D3+$G$2</f>
+        <v>103</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42">
+        <f>D3+$O$2</f>
+        <v>111</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="42">
+        <f>D3+$U$2</f>
+        <v>117</v>
+      </c>
+      <c r="V3" s="42">
+        <f>D3+$V$2</f>
+        <v>118</v>
+      </c>
+      <c r="W3" s="42"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42">
+        <f>D3+$AF$2</f>
+        <v>128</v>
+      </c>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4" s="38">
+        <f>D4+$E$2</f>
+        <v>131</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G14" si="0">D4+$G$2</f>
+        <v>133</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O14" si="1">D4+$O$2</f>
+        <v>141</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U14" si="2">D4+$U$2</f>
+        <v>147</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V14" si="3">D4+$V$2</f>
+        <v>148</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1">
+        <f t="shared" ref="AF4:AF14" si="4">D4+$AF$2</f>
+        <v>158</v>
+      </c>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5" s="38">
+        <f>D5+$E$2</f>
+        <v>161</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="U5" s="1">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>190</v>
+      </c>
+      <c r="E6" s="38">
+        <f>D6+$E$2</f>
+        <v>191</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="U6" s="1">
+        <f t="shared" si="2"/>
+        <v>207</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>220</v>
+      </c>
+      <c r="E7" s="38">
+        <f>D7+$E$2</f>
+        <v>221</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="U7" s="1">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
+        <v>6</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="46">
+        <v>250</v>
+      </c>
+      <c r="E8" s="43">
+        <f>D8+$E$2</f>
+        <v>251</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="44">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="44">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="44">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="V8" s="44">
+        <f t="shared" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="W8" s="44"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>280</v>
+      </c>
+      <c r="E9" s="38">
+        <f>D9+$E$2</f>
+        <v>281</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="U9" s="1">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>310</v>
+      </c>
+      <c r="E10" s="38">
+        <f>D10+$E$2</f>
+        <v>311</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="U10" s="1">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1">
+        <f t="shared" si="4"/>
+        <v>338</v>
+      </c>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>340</v>
+      </c>
+      <c r="E11" s="38">
+        <f>D11+$E$2</f>
+        <v>341</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="U11" s="1">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="3"/>
+        <v>358</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1">
+        <f t="shared" si="4"/>
+        <v>368</v>
+      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>370</v>
+      </c>
+      <c r="E12" s="38">
+        <f>D12+$E$2</f>
+        <v>371</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="U12" s="1">
+        <f t="shared" si="2"/>
+        <v>387</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1">
+        <f t="shared" si="4"/>
+        <v>398</v>
+      </c>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13" s="38">
+        <f>D13+$E$2</f>
+        <v>401</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="U13" s="1">
+        <f t="shared" si="2"/>
+        <v>417</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1">
+        <f t="shared" si="4"/>
+        <v>428</v>
+      </c>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
+        <v>12</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="46">
+        <v>430</v>
+      </c>
+      <c r="E14" s="43">
+        <f>D14+$E$2</f>
+        <v>431</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="44">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="44">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="44">
+        <f t="shared" si="2"/>
+        <v>447</v>
+      </c>
+      <c r="V14" s="44">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="W14" s="44"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44">
+        <f t="shared" si="4"/>
+        <v>458</v>
+      </c>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D15" s="45"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="36"/>
+      <c r="E16" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="U16" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>1</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="52">
+        <v>460</v>
+      </c>
+      <c r="E17" s="42">
+        <f>D17+$E$2</f>
+        <v>461</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42">
+        <f>D17+$G$2</f>
+        <v>463</v>
+      </c>
+      <c r="H17" s="42">
+        <f>D17+$H$2</f>
+        <v>464</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42">
+        <f>D17+$O$2</f>
+        <v>471</v>
+      </c>
+      <c r="P17" s="42">
+        <f>D17+$P$2</f>
+        <v>472</v>
+      </c>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42">
+        <f>D17+$U$2</f>
+        <v>477</v>
+      </c>
+      <c r="V17" s="42">
+        <f>D17+$V$2</f>
+        <v>478</v>
+      </c>
+      <c r="W17" s="42">
+        <f>D17+$W$2</f>
+        <v>479</v>
+      </c>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42">
+        <f>D17+$AF$2</f>
+        <v>488</v>
+      </c>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="45">
+        <v>490</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E22" si="5">D18+$E$2</f>
+        <v>491</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18:G22" si="6">D18+$G$2</f>
+        <v>493</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18:H22" si="7">D18+$H$2</f>
+        <v>494</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O22" si="8">D18+$O$2</f>
+        <v>501</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ref="P18:P22" si="9">D18+$P$2</f>
+        <v>502</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1">
+        <f t="shared" ref="U18:U22" si="10">D18+$U$2</f>
+        <v>507</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" ref="V18:V22" si="11">D18+$V$2</f>
+        <v>508</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ref="W18:W22" si="12">D18+$W$2</f>
+        <v>509</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1">
+        <f t="shared" ref="AF18:AF22" si="13">D18+$AF$2</f>
+        <v>518</v>
+      </c>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
+        <v>3</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="47">
+        <v>520</v>
+      </c>
+      <c r="E19" s="44">
+        <f t="shared" si="5"/>
+        <v>521</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44">
+        <f t="shared" si="6"/>
+        <v>523</v>
+      </c>
+      <c r="H19" s="44">
+        <f t="shared" si="7"/>
+        <v>524</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44">
+        <f t="shared" si="8"/>
+        <v>531</v>
+      </c>
+      <c r="P19" s="44">
+        <f t="shared" si="9"/>
+        <v>532</v>
+      </c>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44">
+        <f t="shared" si="10"/>
+        <v>537</v>
+      </c>
+      <c r="V19" s="44">
+        <f t="shared" si="11"/>
+        <v>538</v>
+      </c>
+      <c r="W19" s="44">
+        <f t="shared" si="12"/>
+        <v>539</v>
+      </c>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44">
+        <f t="shared" si="13"/>
+        <v>548</v>
+      </c>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="45">
+        <v>550</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>551</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <f t="shared" si="6"/>
+        <v>553</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="7"/>
+        <v>554</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <f t="shared" si="8"/>
+        <v>561</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="9"/>
+        <v>562</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1">
+        <f t="shared" si="10"/>
+        <v>567</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="11"/>
+        <v>568</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="12"/>
+        <v>569</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1">
+        <f t="shared" si="13"/>
+        <v>578</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="45">
+        <v>580</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>581</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
+        <v>583</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="7"/>
+        <v>584</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <f t="shared" si="8"/>
+        <v>591</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="9"/>
+        <v>592</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1">
+        <f t="shared" si="10"/>
+        <v>597</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="11"/>
+        <v>598</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="12"/>
+        <v>599</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1">
+        <f t="shared" si="13"/>
+        <v>608</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
+        <v>6</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="47">
+        <v>610</v>
+      </c>
+      <c r="E22" s="44">
+        <f t="shared" si="5"/>
+        <v>611</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44">
+        <f t="shared" si="6"/>
+        <v>613</v>
+      </c>
+      <c r="H22" s="44">
+        <f t="shared" si="7"/>
+        <v>614</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44">
+        <f t="shared" si="8"/>
+        <v>621</v>
+      </c>
+      <c r="P22" s="44">
+        <f t="shared" si="9"/>
+        <v>622</v>
+      </c>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44">
+        <f t="shared" si="10"/>
+        <v>627</v>
+      </c>
+      <c r="V22" s="44">
+        <f t="shared" si="11"/>
+        <v>628</v>
+      </c>
+      <c r="W22" s="44">
+        <f t="shared" si="12"/>
+        <v>629</v>
+      </c>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44">
+        <f t="shared" si="13"/>
+        <v>638</v>
+      </c>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D23" s="45"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="1:34" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="E24" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="R24" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="S24" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="T24" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="U24" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="V24" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="W24" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="X24" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y24" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z24" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA24" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB24" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC24" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="51">
+        <v>1</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="52">
+        <v>640</v>
+      </c>
+      <c r="E25" s="42">
+        <f>D25+$E$2</f>
+        <v>641</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42">
+        <f>D25+$G$2</f>
+        <v>643</v>
+      </c>
+      <c r="H25" s="42">
+        <f>D25+$H$2</f>
+        <v>644</v>
+      </c>
+      <c r="I25" s="42">
+        <f>D25+$I$2</f>
+        <v>645</v>
+      </c>
+      <c r="J25" s="42">
+        <f>D25+$J$2</f>
+        <v>646</v>
+      </c>
+      <c r="K25" s="42">
+        <f>D25+$K$2</f>
+        <v>647</v>
+      </c>
+      <c r="L25" s="42">
+        <f>D25+$L$2</f>
+        <v>648</v>
+      </c>
+      <c r="M25" s="42">
+        <f>D25+$M$2</f>
+        <v>649</v>
+      </c>
+      <c r="N25" s="42">
+        <f>D25+$N$2</f>
+        <v>650</v>
+      </c>
+      <c r="O25" s="42">
+        <f>D25+$O$2</f>
+        <v>651</v>
+      </c>
+      <c r="P25" s="42">
+        <f>D25+$P$2</f>
+        <v>652</v>
+      </c>
+      <c r="Q25" s="42">
+        <f>D25+$Q$2</f>
+        <v>653</v>
+      </c>
+      <c r="R25" s="42">
+        <f>D25+$R$2</f>
+        <v>654</v>
+      </c>
+      <c r="S25" s="42">
+        <f>D25+$S$2</f>
+        <v>655</v>
+      </c>
+      <c r="T25" s="42">
+        <f>D25+$T$2</f>
+        <v>656</v>
+      </c>
+      <c r="U25" s="42">
+        <f>D25+$U$2</f>
+        <v>657</v>
+      </c>
+      <c r="V25" s="42">
+        <f>D25+$V$2</f>
+        <v>658</v>
+      </c>
+      <c r="W25" s="42">
+        <f>D25+$W$2</f>
+        <v>659</v>
+      </c>
+      <c r="X25" s="42">
+        <f>D25+$X$2</f>
+        <v>660</v>
+      </c>
+      <c r="Y25" s="42">
+        <f>D25+$Y$2</f>
+        <v>661</v>
+      </c>
+      <c r="Z25" s="42">
+        <f>D25+$Z$2</f>
+        <v>662</v>
+      </c>
+      <c r="AA25" s="42">
+        <f>D25+$AA$2</f>
+        <v>663</v>
+      </c>
+      <c r="AB25" s="42">
+        <f>D25+$AB$2</f>
+        <v>664</v>
+      </c>
+      <c r="AC25" s="42">
+        <f>D25+$AC$2</f>
+        <v>665</v>
+      </c>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42">
+        <f>D25+$AF$2</f>
+        <v>668</v>
+      </c>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
+        <v>2</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="47">
+        <v>670</v>
+      </c>
+      <c r="E26" s="44">
+        <f t="shared" ref="E26:E28" si="14">D26+$E$2</f>
+        <v>671</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44">
+        <f t="shared" ref="G26:G28" si="15">D26+$G$2</f>
+        <v>673</v>
+      </c>
+      <c r="H26" s="44">
+        <f t="shared" ref="H26:H28" si="16">D26+$H$2</f>
+        <v>674</v>
+      </c>
+      <c r="I26" s="44">
+        <f t="shared" ref="I26:I28" si="17">D26+$I$2</f>
+        <v>675</v>
+      </c>
+      <c r="J26" s="44">
+        <f t="shared" ref="J26:J28" si="18">D26+$J$2</f>
+        <v>676</v>
+      </c>
+      <c r="K26" s="44">
+        <f t="shared" ref="K26:K28" si="19">D26+$K$2</f>
+        <v>677</v>
+      </c>
+      <c r="L26" s="44">
+        <f t="shared" ref="L26:L28" si="20">D26+$L$2</f>
+        <v>678</v>
+      </c>
+      <c r="M26" s="44">
+        <f t="shared" ref="M26:M28" si="21">D26+$M$2</f>
+        <v>679</v>
+      </c>
+      <c r="N26" s="44">
+        <f t="shared" ref="N26:N28" si="22">D26+$N$2</f>
+        <v>680</v>
+      </c>
+      <c r="O26" s="44">
+        <f t="shared" ref="O26:O28" si="23">D26+$O$2</f>
+        <v>681</v>
+      </c>
+      <c r="P26" s="44">
+        <f t="shared" ref="P26:P28" si="24">D26+$P$2</f>
+        <v>682</v>
+      </c>
+      <c r="Q26" s="44">
+        <f t="shared" ref="Q26:Q28" si="25">D26+$Q$2</f>
+        <v>683</v>
+      </c>
+      <c r="R26" s="44">
+        <f t="shared" ref="R26:R28" si="26">D26+$R$2</f>
+        <v>684</v>
+      </c>
+      <c r="S26" s="44">
+        <f t="shared" ref="S26:S28" si="27">D26+$S$2</f>
+        <v>685</v>
+      </c>
+      <c r="T26" s="44">
+        <f t="shared" ref="T26:T28" si="28">D26+$T$2</f>
+        <v>686</v>
+      </c>
+      <c r="U26" s="44">
+        <f t="shared" ref="U26:U28" si="29">D26+$U$2</f>
+        <v>687</v>
+      </c>
+      <c r="V26" s="44">
+        <f t="shared" ref="V26:V28" si="30">D26+$V$2</f>
+        <v>688</v>
+      </c>
+      <c r="W26" s="44">
+        <f t="shared" ref="W26:W28" si="31">D26+$W$2</f>
+        <v>689</v>
+      </c>
+      <c r="X26" s="44">
+        <f t="shared" ref="X26:X28" si="32">D26+$X$2</f>
+        <v>690</v>
+      </c>
+      <c r="Y26" s="44">
+        <f t="shared" ref="Y26:Y28" si="33">D26+$Y$2</f>
+        <v>691</v>
+      </c>
+      <c r="Z26" s="44">
+        <f t="shared" ref="Z26:Z28" si="34">D26+$Z$2</f>
+        <v>692</v>
+      </c>
+      <c r="AA26" s="44">
+        <f t="shared" ref="AA26:AA28" si="35">D26+$AA$2</f>
+        <v>693</v>
+      </c>
+      <c r="AB26" s="44">
+        <f t="shared" ref="AB26:AB28" si="36">D26+$AB$2</f>
+        <v>694</v>
+      </c>
+      <c r="AC26" s="44">
+        <f t="shared" ref="AC26:AC28" si="37">D26+$AC$2</f>
+        <v>695</v>
+      </c>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44">
+        <f t="shared" ref="AF26:AF28" si="38">D26+$AF$2</f>
+        <v>698</v>
+      </c>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="54">
+        <v>3</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="55">
+        <v>700</v>
+      </c>
+      <c r="E27" s="42">
+        <f t="shared" si="14"/>
+        <v>701</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42">
+        <f t="shared" si="15"/>
+        <v>703</v>
+      </c>
+      <c r="H27" s="42">
+        <f t="shared" si="16"/>
+        <v>704</v>
+      </c>
+      <c r="I27" s="42">
+        <f t="shared" si="17"/>
+        <v>705</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" si="18"/>
+        <v>706</v>
+      </c>
+      <c r="K27" s="42">
+        <f t="shared" si="19"/>
+        <v>707</v>
+      </c>
+      <c r="L27" s="42">
+        <f t="shared" si="20"/>
+        <v>708</v>
+      </c>
+      <c r="M27" s="42">
+        <f t="shared" si="21"/>
+        <v>709</v>
+      </c>
+      <c r="N27" s="42">
+        <f t="shared" si="22"/>
+        <v>710</v>
+      </c>
+      <c r="O27" s="42">
+        <f t="shared" si="23"/>
+        <v>711</v>
+      </c>
+      <c r="P27" s="42">
+        <f t="shared" si="24"/>
+        <v>712</v>
+      </c>
+      <c r="Q27" s="42">
+        <f t="shared" si="25"/>
+        <v>713</v>
+      </c>
+      <c r="R27" s="42">
+        <f t="shared" si="26"/>
+        <v>714</v>
+      </c>
+      <c r="S27" s="42">
+        <f t="shared" si="27"/>
+        <v>715</v>
+      </c>
+      <c r="T27" s="42">
+        <f t="shared" si="28"/>
+        <v>716</v>
+      </c>
+      <c r="U27" s="42">
+        <f t="shared" si="29"/>
+        <v>717</v>
+      </c>
+      <c r="V27" s="42">
+        <f t="shared" si="30"/>
+        <v>718</v>
+      </c>
+      <c r="W27" s="42">
+        <f t="shared" si="31"/>
+        <v>719</v>
+      </c>
+      <c r="X27" s="42">
+        <f t="shared" si="32"/>
+        <v>720</v>
+      </c>
+      <c r="Y27" s="42">
+        <f t="shared" si="33"/>
+        <v>721</v>
+      </c>
+      <c r="Z27" s="42">
+        <f t="shared" si="34"/>
+        <v>722</v>
+      </c>
+      <c r="AA27" s="42">
+        <f t="shared" si="35"/>
+        <v>723</v>
+      </c>
+      <c r="AB27" s="42">
+        <f t="shared" si="36"/>
+        <v>724</v>
+      </c>
+      <c r="AC27" s="42">
+        <f t="shared" si="37"/>
+        <v>725</v>
+      </c>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42">
+        <f t="shared" si="38"/>
+        <v>728</v>
+      </c>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="56">
+        <v>4</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="47">
+        <v>730</v>
+      </c>
+      <c r="E28" s="44">
+        <f t="shared" si="14"/>
+        <v>731</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44">
+        <f t="shared" si="15"/>
+        <v>733</v>
+      </c>
+      <c r="H28" s="44">
+        <f t="shared" si="16"/>
+        <v>734</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="17"/>
+        <v>735</v>
+      </c>
+      <c r="J28" s="44">
+        <f t="shared" si="18"/>
+        <v>736</v>
+      </c>
+      <c r="K28" s="44">
+        <f t="shared" si="19"/>
+        <v>737</v>
+      </c>
+      <c r="L28" s="44">
+        <f t="shared" si="20"/>
+        <v>738</v>
+      </c>
+      <c r="M28" s="44">
+        <f t="shared" si="21"/>
+        <v>739</v>
+      </c>
+      <c r="N28" s="44">
+        <f t="shared" si="22"/>
+        <v>740</v>
+      </c>
+      <c r="O28" s="44">
+        <f t="shared" si="23"/>
+        <v>741</v>
+      </c>
+      <c r="P28" s="44">
+        <f t="shared" si="24"/>
+        <v>742</v>
+      </c>
+      <c r="Q28" s="44">
+        <f t="shared" si="25"/>
+        <v>743</v>
+      </c>
+      <c r="R28" s="44">
+        <f t="shared" si="26"/>
+        <v>744</v>
+      </c>
+      <c r="S28" s="44">
+        <f t="shared" si="27"/>
+        <v>745</v>
+      </c>
+      <c r="T28" s="44">
+        <f t="shared" si="28"/>
+        <v>746</v>
+      </c>
+      <c r="U28" s="44">
+        <f t="shared" si="29"/>
+        <v>747</v>
+      </c>
+      <c r="V28" s="44">
+        <f t="shared" si="30"/>
+        <v>748</v>
+      </c>
+      <c r="W28" s="44">
+        <f t="shared" si="31"/>
+        <v>749</v>
+      </c>
+      <c r="X28" s="44">
+        <f t="shared" si="32"/>
+        <v>750</v>
+      </c>
+      <c r="Y28" s="44">
+        <f t="shared" si="33"/>
+        <v>751</v>
+      </c>
+      <c r="Z28" s="44">
+        <f t="shared" si="34"/>
+        <v>752</v>
+      </c>
+      <c r="AA28" s="44">
+        <f t="shared" si="35"/>
+        <v>753</v>
+      </c>
+      <c r="AB28" s="44">
+        <f t="shared" si="36"/>
+        <v>754</v>
+      </c>
+      <c r="AC28" s="44">
+        <f t="shared" si="37"/>
+        <v>755</v>
+      </c>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44">
+        <f t="shared" si="38"/>
+        <v>758</v>
+      </c>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D29" s="45"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Speicher.xlsx
+++ b/doc/Speicher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenKNX_Module\OAM-LEDModule\OAM-LEDModule\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D066A2-C1DC-4DEA-AB49-20BB2AD75D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDAA5DD-5182-443B-8E39-9BCFC76BD9C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="9930" activeTab="1" xr2:uid="{06C3CD4E-6B4D-4BE3-8FD1-2E9564BF4AD6}"/>
   </bookViews>
@@ -853,7 +853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="190">
   <si>
     <t>0x0000</t>
   </si>
@@ -1179,9 +1179,6 @@
     <t>DimRelBright</t>
   </si>
   <si>
-    <t>DimRelCoTe</t>
-  </si>
-  <si>
     <t>StatusCoTe</t>
   </si>
   <si>
@@ -1260,12 +1257,6 @@
     <t>0x02F0</t>
   </si>
   <si>
-    <t>Scene EK1</t>
-  </si>
-  <si>
-    <t>Scene EK2</t>
-  </si>
-  <si>
     <t>0x0300</t>
   </si>
   <si>
@@ -1344,36 +1335,6 @@
     <t>0x0490</t>
   </si>
   <si>
-    <t>Scene EK3</t>
-  </si>
-  <si>
-    <t>Scene EK4</t>
-  </si>
-  <si>
-    <t>Scene EK5</t>
-  </si>
-  <si>
-    <t>Scene EK6</t>
-  </si>
-  <si>
-    <t>Scene EK7</t>
-  </si>
-  <si>
-    <t>Scene EK8</t>
-  </si>
-  <si>
-    <t>Scene EK9</t>
-  </si>
-  <si>
-    <t>Scene EK10</t>
-  </si>
-  <si>
-    <t>Scene EK11</t>
-  </si>
-  <si>
-    <t>Scene EK12</t>
-  </si>
-  <si>
     <t>0x04A0</t>
   </si>
   <si>
@@ -1441,6 +1402,27 @@
   </si>
   <si>
     <t>Tag/Nacht</t>
+  </si>
+  <si>
+    <t>Überspannung</t>
+  </si>
+  <si>
+    <t>Unterspannung</t>
+  </si>
+  <si>
+    <t>Übertemperatur</t>
+  </si>
+  <si>
+    <t>Überstrom</t>
+  </si>
+  <si>
+    <t>Wirkleistung (Wh)</t>
+  </si>
+  <si>
+    <t>StatusKW</t>
+  </si>
+  <si>
+    <t>DimRelKW</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,23 +1760,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1814,54 +1789,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,16 +1816,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2216,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3EC3CA-629F-44F8-8BD0-D231238D4438}">
   <dimension ref="A1:AJ85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AF62" sqref="AF62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,24 +2304,24 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2366,22 +2330,22 @@
       <c r="B3" s="4">
         <v>16</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2390,62 +2354,62 @@
       <c r="B4" s="2">
         <v>32</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="U5" s="70" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="U5" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2455,24 +2419,24 @@
         <f>SUM(B4+32)</f>
         <v>64</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="79"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="61"/>
       <c r="T6" s="4">
         <v>0</v>
       </c>
@@ -2510,22 +2474,22 @@
         <v>33</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="82"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="64"/>
       <c r="T7" s="4">
         <v>16</v>
       </c>
@@ -2554,24 +2518,24 @@
         <f t="shared" ref="B8:B70" si="0">SUM(B6+32)</f>
         <v>96</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="66"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="54"/>
       <c r="T8" s="4">
         <v>0</v>
       </c>
@@ -2609,22 +2573,22 @@
         <v>35</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="69"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
       <c r="T9" s="4">
         <v>16</v>
       </c>
@@ -2653,24 +2617,24 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="66"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
       <c r="T10" s="4">
         <v>0</v>
       </c>
@@ -2708,22 +2672,22 @@
         <v>37</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="69"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
       <c r="T11" s="4">
         <v>16</v>
       </c>
@@ -2752,24 +2716,24 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="54"/>
       <c r="T12" s="4">
         <v>0</v>
       </c>
@@ -2807,22 +2771,22 @@
         <v>39</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="57"/>
       <c r="T13" s="4">
         <v>16</v>
       </c>
@@ -2851,24 +2815,24 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
       <c r="T14" s="4">
         <v>0</v>
       </c>
@@ -2906,22 +2870,22 @@
         <v>41</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
       <c r="T15" s="4">
         <v>16</v>
       </c>
@@ -2950,24 +2914,24 @@
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="54"/>
       <c r="T16" s="4">
         <v>0</v>
       </c>
@@ -3005,22 +2969,22 @@
         <v>43</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
       <c r="T17" s="4">
         <v>16</v>
       </c>
@@ -3049,46 +3013,46 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -3098,46 +3062,46 @@
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="54"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="57"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3147,46 +3111,46 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3196,46 +3160,46 @@
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="54"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3245,46 +3209,46 @@
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="54"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="57"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3294,46 +3258,46 @@
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="54"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3343,24 +3307,24 @@
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="54"/>
       <c r="T30" s="35">
         <v>0</v>
       </c>
@@ -3407,22 +3371,22 @@
         <v>60</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="57"/>
       <c r="T31" s="35">
         <v>16</v>
       </c>
@@ -3451,24 +3415,24 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="59"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="73"/>
       <c r="T32" s="35">
         <v>0</v>
       </c>
@@ -3515,22 +3479,22 @@
         <v>62</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="62"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="76"/>
       <c r="T33" s="35">
         <v>16</v>
       </c>
@@ -3559,24 +3523,24 @@
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="59"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="73"/>
       <c r="T34" s="35">
         <v>0</v>
       </c>
@@ -3623,22 +3587,22 @@
         <v>64</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="62"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="76"/>
       <c r="T35" s="35">
         <v>16</v>
       </c>
@@ -3667,24 +3631,24 @@
         <f t="shared" si="0"/>
         <v>544</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="59"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="73"/>
       <c r="T36" s="35">
         <v>0</v>
       </c>
@@ -3731,22 +3695,22 @@
         <v>66</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="62"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="76"/>
       <c r="T37" s="35">
         <v>16</v>
       </c>
@@ -3775,24 +3739,24 @@
         <f t="shared" si="0"/>
         <v>576</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="59"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="73"/>
       <c r="T38" s="35">
         <v>0</v>
       </c>
@@ -3839,22 +3803,22 @@
         <v>68</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="62"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="76"/>
       <c r="T39" s="35">
         <v>16</v>
       </c>
@@ -3883,24 +3847,24 @@
         <f t="shared" si="0"/>
         <v>608</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="59"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="73"/>
       <c r="T40" s="35">
         <v>0</v>
       </c>
@@ -3947,22 +3911,22 @@
         <v>70</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="62"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="76"/>
       <c r="T41" s="35">
         <v>16</v>
       </c>
@@ -3991,56 +3955,56 @@
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="59"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="73"/>
       <c r="T42" s="35">
         <v>0</v>
       </c>
-      <c r="U42" s="63">
+      <c r="U42" s="45">
         <f>$B$40+U1</f>
         <v>608</v>
       </c>
-      <c r="V42" s="63"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="63">
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45">
         <f>$B$40+X1</f>
         <v>611</v>
       </c>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="63"/>
-      <c r="AA42" s="63">
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45">
         <f>$B$40+AA1</f>
         <v>614</v>
       </c>
-      <c r="AB42" s="63">
+      <c r="AB42" s="45">
         <f>$B$40+AB1</f>
         <v>615</v>
       </c>
-      <c r="AC42" s="63">
+      <c r="AC42" s="45">
         <f>$B$40+AC1</f>
         <v>616</v>
       </c>
-      <c r="AD42" s="63">
+      <c r="AD42" s="45">
         <f>$B$40+AD1</f>
         <v>617</v>
       </c>
-      <c r="AE42" s="63">
+      <c r="AE42" s="45">
         <f>$B$40+AE1</f>
         <v>618</v>
       </c>
@@ -4055,22 +4019,22 @@
         <v>72</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="62"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="76"/>
       <c r="T43" s="35">
         <v>16</v>
       </c>
@@ -4099,56 +4063,56 @@
         <f t="shared" si="0"/>
         <v>672</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="47"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="79"/>
       <c r="T44" s="35">
         <v>0</v>
       </c>
-      <c r="U44" s="63">
+      <c r="U44" s="45">
         <f>$B$42+U1</f>
         <v>640</v>
       </c>
-      <c r="V44" s="63"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="63">
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45">
         <f>$B$42+X1</f>
         <v>643</v>
       </c>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="63"/>
-      <c r="AA44" s="63">
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45">
         <f>$B$42+AA1</f>
         <v>646</v>
       </c>
-      <c r="AB44" s="63">
+      <c r="AB44" s="45">
         <f>$B$42+AB1</f>
         <v>647</v>
       </c>
-      <c r="AC44" s="63">
+      <c r="AC44" s="45">
         <f>$B$42+AC1</f>
         <v>648</v>
       </c>
-      <c r="AD44" s="63">
+      <c r="AD44" s="45">
         <f>$B$42+AD1</f>
         <v>649</v>
       </c>
-      <c r="AE44" s="63">
+      <c r="AE44" s="45">
         <f>$B$42+AE1</f>
         <v>650</v>
       </c>
@@ -4163,22 +4127,22 @@
         <v>74</v>
       </c>
       <c r="B45" s="38"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="50"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="82"/>
       <c r="T45" s="35">
         <v>16</v>
       </c>
@@ -4207,56 +4171,56 @@
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="47"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="79"/>
       <c r="T46" s="35">
         <v>0</v>
       </c>
-      <c r="U46" s="63">
+      <c r="U46" s="45">
         <f>$B$44+U1</f>
         <v>672</v>
       </c>
-      <c r="V46" s="63"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63">
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45">
         <f>$B$44+X1</f>
         <v>675</v>
       </c>
-      <c r="Y46" s="63"/>
-      <c r="Z46" s="63"/>
-      <c r="AA46" s="63">
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45">
         <f>$B$44+AA1</f>
         <v>678</v>
       </c>
-      <c r="AB46" s="63">
+      <c r="AB46" s="45">
         <f>$B$44+AB1</f>
         <v>679</v>
       </c>
-      <c r="AC46" s="63">
+      <c r="AC46" s="45">
         <f>$B$44+AC1</f>
         <v>680</v>
       </c>
-      <c r="AD46" s="63">
+      <c r="AD46" s="45">
         <f>$B$44+AD1</f>
         <v>681</v>
       </c>
-      <c r="AE46" s="63">
+      <c r="AE46" s="45">
         <f>$B$44+AE1</f>
         <v>682</v>
       </c>
@@ -4271,22 +4235,22 @@
         <v>76</v>
       </c>
       <c r="B47" s="38"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="50"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="82"/>
       <c r="T47" s="35">
         <v>16</v>
       </c>
@@ -4309,62 +4273,62 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>736</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="47"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="79"/>
       <c r="T48" s="35">
         <v>0</v>
       </c>
-      <c r="U48" s="63">
+      <c r="U48" s="45">
         <f>$B$46+U1</f>
         <v>704</v>
       </c>
-      <c r="V48" s="63"/>
-      <c r="W48" s="63"/>
-      <c r="X48" s="63">
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45">
         <f>$B$46+X1</f>
         <v>707</v>
       </c>
-      <c r="Y48" s="63"/>
-      <c r="Z48" s="63"/>
-      <c r="AA48" s="63">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45">
         <f>$B$46+AA1</f>
         <v>710</v>
       </c>
-      <c r="AB48" s="63">
+      <c r="AB48" s="45">
         <f>$B$46+AB1</f>
         <v>711</v>
       </c>
-      <c r="AC48" s="63">
+      <c r="AC48" s="45">
         <f>$B$46+AC1</f>
         <v>712</v>
       </c>
-      <c r="AD48" s="63">
+      <c r="AD48" s="45">
         <f>$B$46+AD1</f>
         <v>713</v>
       </c>
-      <c r="AE48" s="63">
+      <c r="AE48" s="45">
         <f>$B$46+AE1</f>
         <v>714</v>
       </c>
@@ -4376,25 +4340,25 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="50"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="82"/>
       <c r="T49" s="35">
         <v>16</v>
       </c>
@@ -4417,64 +4381,62 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="47"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="79"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="50"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="82"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="C52" s="39" t="s">
-        <v>135</v>
-      </c>
+      <c r="C52" s="39"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
@@ -4493,7 +4455,7 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="42"/>
@@ -4515,15 +4477,13 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>832</v>
       </c>
-      <c r="C54" s="39" t="s">
-        <v>136</v>
-      </c>
+      <c r="C54" s="39"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
@@ -4542,7 +4502,7 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="42"/>
@@ -4564,15 +4524,13 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="C56" s="39" t="s">
-        <v>163</v>
-      </c>
+      <c r="C56" s="39"/>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -4591,7 +4549,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="42"/>
@@ -4613,15 +4571,13 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>896</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>164</v>
-      </c>
+      <c r="C58" s="39"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="F58" s="40"/>
@@ -4640,7 +4596,7 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="42"/>
@@ -4662,15 +4618,13 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>928</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>165</v>
-      </c>
+      <c r="C60" s="39"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="F60" s="40"/>
@@ -4689,7 +4643,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="42"/>
@@ -4711,15 +4665,13 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>166</v>
-      </c>
+      <c r="C62" s="39"/>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="F62" s="40"/>
@@ -4738,7 +4690,7 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="42"/>
@@ -4760,15 +4712,13 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
-      <c r="C64" s="39" t="s">
-        <v>167</v>
-      </c>
+      <c r="C64" s="39"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -4787,7 +4737,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="42"/>
@@ -4809,15 +4759,13 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="C66" s="39" t="s">
-        <v>168</v>
-      </c>
+      <c r="C66" s="39"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
@@ -4836,7 +4784,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="42"/>
@@ -4858,15 +4806,13 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>1056</v>
       </c>
-      <c r="C68" s="39" t="s">
-        <v>169</v>
-      </c>
+      <c r="C68" s="39"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="40"/>
@@ -4885,7 +4831,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="42"/>
@@ -4907,15 +4853,13 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" si="0"/>
         <v>1088</v>
       </c>
-      <c r="C70" s="39" t="s">
-        <v>170</v>
-      </c>
+      <c r="C70" s="39"/>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
       <c r="F70" s="40"/>
@@ -4934,7 +4878,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="42"/>
@@ -4956,15 +4900,13 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B72" s="2">
         <f t="shared" ref="B72:B84" si="1">SUM(B70+32)</f>
         <v>1120</v>
       </c>
-      <c r="C72" s="39" t="s">
-        <v>171</v>
-      </c>
+      <c r="C72" s="39"/>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="F72" s="40"/>
@@ -4983,7 +4925,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="42"/>
@@ -5005,15 +4947,13 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B74" s="2">
         <f t="shared" si="1"/>
         <v>1152</v>
       </c>
-      <c r="C74" s="39" t="s">
-        <v>172</v>
-      </c>
+      <c r="C74" s="39"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
       <c r="F74" s="40"/>
@@ -5032,7 +4972,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="42"/>
@@ -5054,251 +4994,271 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B76" s="2">
         <f t="shared" si="1"/>
         <v>1184</v>
       </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="75"/>
-      <c r="P76" s="75"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="75"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="75"/>
-      <c r="P77" s="75"/>
-      <c r="Q77" s="75"/>
-      <c r="R77" s="75"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B78" s="2">
         <f t="shared" si="1"/>
         <v>1216</v>
       </c>
-      <c r="C78" s="76"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="75"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="75"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="75"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="75"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" si="1"/>
         <v>1248</v>
       </c>
-      <c r="C80" s="76"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="75"/>
-      <c r="J80" s="75"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="75"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="75"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="75"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="75"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="75"/>
-      <c r="P81" s="75"/>
-      <c r="Q81" s="75"/>
-      <c r="R81" s="75"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B82" s="2">
         <f t="shared" si="1"/>
         <v>1280</v>
       </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="75"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B84" s="2">
         <f t="shared" si="1"/>
         <v>1312</v>
       </c>
-      <c r="C84" s="76"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B85" s="35"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C6:R7"/>
+  <mergeCells count="30">
     <mergeCell ref="C2:R5"/>
     <mergeCell ref="C78:R79"/>
     <mergeCell ref="C80:R81"/>
     <mergeCell ref="C82:R83"/>
+    <mergeCell ref="C32:R33"/>
+    <mergeCell ref="C34:R35"/>
+    <mergeCell ref="C36:R37"/>
+    <mergeCell ref="C38:R39"/>
+    <mergeCell ref="C40:R41"/>
+    <mergeCell ref="C42:R43"/>
+    <mergeCell ref="C44:R45"/>
+    <mergeCell ref="C46:R47"/>
+    <mergeCell ref="C48:R49"/>
+    <mergeCell ref="C50:R51"/>
     <mergeCell ref="C84:R85"/>
     <mergeCell ref="C76:R77"/>
     <mergeCell ref="C10:R11"/>
     <mergeCell ref="U5:AJ5"/>
     <mergeCell ref="C8:R9"/>
+    <mergeCell ref="C12:R13"/>
+    <mergeCell ref="C14:R15"/>
+    <mergeCell ref="C16:R17"/>
+    <mergeCell ref="C18:R19"/>
+    <mergeCell ref="C20:R21"/>
+    <mergeCell ref="C22:R23"/>
+    <mergeCell ref="C24:R25"/>
+    <mergeCell ref="C26:R27"/>
+    <mergeCell ref="C28:R29"/>
+    <mergeCell ref="C30:R31"/>
+    <mergeCell ref="C6:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5309,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF66279-D331-4631-A34B-7F6BA7BF0073}">
   <dimension ref="A2:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,27 +5284,27 @@
   <sheetData>
     <row r="2" spans="1:34" ht="72" x14ac:dyDescent="0.25">
       <c r="E2" s="9" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -5463,124 +5423,134 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="74">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="71">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="46">
         <v>0</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="46">
         <v>1</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="46">
         <v>2</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="47">
         <v>3</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46">
         <v>7</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46">
         <v>10</v>
       </c>
-      <c r="O4" s="71">
+      <c r="O4" s="46">
         <v>11</v>
       </c>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
     </row>
     <row r="6" spans="1:34" ht="75.75" x14ac:dyDescent="0.25">
       <c r="E6" s="9" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>180</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="I6" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="S6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
@@ -5691,29 +5661,44 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="73">
+      <c r="A8" s="48">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="47">
         <v>31</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="47">
         <v>32</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="47">
         <v>33</v>
+      </c>
+      <c r="H8" s="47">
+        <v>34</v>
       </c>
       <c r="I8">
         <v>35</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="47">
         <v>40</v>
+      </c>
+      <c r="S8">
+        <v>45</v>
+      </c>
+      <c r="T8">
+        <v>46</v>
+      </c>
+      <c r="U8">
+        <v>47</v>
+      </c>
+      <c r="V8">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="53.25" x14ac:dyDescent="0.25">
@@ -6536,7 +6521,7 @@
         <v>107</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
@@ -6548,9 +6533,11 @@
         <v>103</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X26" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -6618,7 +6605,9 @@
         <f>D27+$W$12</f>
         <v>479</v>
       </c>
-      <c r="X27" s="17"/>
+      <c r="X27" s="17">
+        <v>480</v>
+      </c>
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
@@ -6686,7 +6675,9 @@
         <f t="shared" ref="W28:W32" si="13">D28+$W$12</f>
         <v>509</v>
       </c>
-      <c r="X28" s="1"/>
+      <c r="X28" s="1">
+        <v>510</v>
+      </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
@@ -6755,7 +6746,9 @@
         <f t="shared" si="13"/>
         <v>539</v>
       </c>
-      <c r="X29" s="19"/>
+      <c r="X29" s="19">
+        <v>540</v>
+      </c>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
@@ -6823,7 +6816,9 @@
         <f t="shared" si="13"/>
         <v>569</v>
       </c>
-      <c r="X30" s="1"/>
+      <c r="X30" s="1">
+        <v>570</v>
+      </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -6891,7 +6886,9 @@
         <f t="shared" si="13"/>
         <v>599</v>
       </c>
-      <c r="X31" s="1"/>
+      <c r="X31" s="1">
+        <v>600</v>
+      </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
@@ -6960,7 +6957,9 @@
         <f t="shared" si="13"/>
         <v>629</v>
       </c>
-      <c r="X32" s="19"/>
+      <c r="X32" s="19">
+        <v>630</v>
+      </c>
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
       <c r="AA32" s="19"/>
@@ -7013,73 +7012,73 @@
         <v>99</v>
       </c>
       <c r="G34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="K34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="L34" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L34" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="M34" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="O34" s="12" t="s">
+      <c r="P34" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="Q34" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q34" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="R34" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="S34" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="S34" s="32" t="s">
+      <c r="T34" s="32" t="s">
         <v>130</v>
-      </c>
-      <c r="T34" s="32" t="s">
-        <v>131</v>
       </c>
       <c r="U34" s="9" t="s">
         <v>102</v>
       </c>
       <c r="V34" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="W34" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="W34" s="12" t="s">
+      <c r="X34" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="X34" s="12" t="s">
+      <c r="Y34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z34" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Y34" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z34" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="AA34" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB34" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="AB34" s="32" t="s">
+      <c r="AC34" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="AC34" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
@@ -7212,7 +7211,7 @@
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="22">
         <v>670</v>
